--- a/Docs/parts_list.xlsx
+++ b/Docs/parts_list.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuto6\Documents\My3DPrinter\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D16BA85-A0BC-4847-BD3F-68C79C13911E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537F89DD-D023-4E15-B983-71A6DD5C5E97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41730" yWindow="3705" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3410" yWindow="1370" windowWidth="14400" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$H$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$I$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
   <si>
     <t>品目</t>
     <rPh sb="0" eb="2">
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NEMA14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アルミフレーム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -108,10 +104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LML9B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>http://www.skysmotor.com/goods-20-Nema-14-%E3%83%90%E3%82%A4%E3%83%9D%E3%83%BC%E3%83%A9%E3%82%B9%E3%83%86%E3%83%83%E3%83%94%E3%83%B3%E3%82%B0%E3%83%A2%E3%83%BC%E3%82%BF%E3%83%BC-18%C2%B040Ncm-567ozin-15A-42V-35x35x52mm-4-%E3%83%AF%E3%82%A4%E3%83%A4%E3%83%BC.html</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -135,9 +127,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://ja.aliexpress.com/item/4001050145015.html?spm=a2g0o.search0304.0.0.7cef4ed7BVZBix&amp;algo_pvid=194702fd-035b-4c34-bf99-2241f0dc8285&amp;algo_exp_id=194702fd-035b-4c34-bf99-2241f0dc8285-0</t>
-  </si>
-  <si>
     <t>BTT SKR MINI E3 V2.0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -159,10 +148,6 @@
   </si>
   <si>
     <t>https://jp.rs-online.com/web/p/raspberry-pi/1828034/?cm_mmc=JP-PPC-DS3A-_-yahoo-_-3_JP_JP_Raspberry+Pi_Raspberry+Pi_Exact-_-Raspberry+Pi+-+Raspberry+Pi+-+1828034-_-raspberry+pi+3+model+b&amp;matchtype=e&amp;kwd-360864490957&amp;yclid=YSS.1000425012.EAIaIQobChMIzp2E3oqv9AIVEVVgCh3D_gc_EAAYASAAEgJLxfD_BwE&amp;gclid=CNex0PaKr_QCFQ4ZvAod1-QFBA&amp;gclsrc=ds</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XYモータ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -194,9 +179,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://www.omc-stepperonline.com/nema-14-bipolar-1-8deg-23ncm-32-6oz-in-0-5a-7-5v-35x35x42mm-4-wires.html</t>
-  </si>
-  <si>
     <t>LRS-100-24</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -257,6 +239,234 @@
   </si>
   <si>
     <t>https://www.chip1stop.com/view/dispDetail/DispDetail?partId=MWE1-0008468&amp;utm_medium=cpc&amp;utm_source=yahoojapan&amp;utm_campaign=JP_SKU_2021%E8%87%AA%E7%A4%BE%E5%9C%A8%E5%BA%AB_%E6%97%A5%E6%9C%AC&amp;utm_term=MWE1-0008468&amp;yclid=YSS.1000009641.EAIaIQobChMIlajpiZKv9AIVySFgCh2x0Q2FEAAYAiAAEgJS3vD_BwE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モータ(XY)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モータ(フィラメント送り出し)</t>
+    <rPh sb="10" eb="11">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LDO-36STH17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アセンブリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクチュエータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エレキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スカート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホットエンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒートベッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VORON0 Print Bed, 120 120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FERMIO LABS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://keenovo.store/collections/standard-keenovo-silicone-heaters/products/keenovo-square-silicone-heater-3d-printer-build-plate-heatbed-heating-pad?variant=12950090055735</t>
+  </si>
+  <si>
+    <t>keenovo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Keenovo Standard Square Silicone Heater 3D Printer Build Plate HeatBed Heating Pad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリングベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリングベース textured pei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ja.aliexpress.com/item/4000017980629.html?aff_fcid=78ed92054cf94855b681a1f6f02cdc6e-1637736669365-08026-_dXbCEmC&amp;aff_fsk=_dXbCEmC&amp;aff_platform=link-c-tool&amp;sk=_dXbCEmC&amp;aff_trace_key=78ed92054cf94855b681a1f6f02cdc6e-1637736669365-08026-_dXbCEmC&amp;terminal_id=abcf960912074dc09d3769297fb2a691</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yellow die springs 8x4x20mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ja.aliexpress.com/item/32977566403.html?spm=a2g0o.productlist.0.0.7dcd6d3eqleziB&amp;algo_pvid=2984f994-5c70-4536-ad87-47929456e717&amp;algo_expid=2984f994-5c70-4536-ad87-47929456e717-4&amp;btsid=0ab6fa8115952818705058800e6961&amp;ws_ab_test=searchweb0_0%2Csearchweb201602_%2Csearchweb201603_&amp;aff_fcid=582401353bf24fb795e2e9832b543e8e-1637736887736-01882-_dUTJIFD&amp;aff_fsk=_dUTJIFD&amp;aff_platform=portals-tool&amp;sk=_dUTJIFD&amp;aff_trace_key=582401353bf24fb795e2e9832b543e8e-1637736887736-01882-_dUTJIFD&amp;terminal_id=abcf960912074dc09d3769297fb2a691</t>
+  </si>
+  <si>
+    <t>ビルドプレート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.omc-stepperonline.com/nema-14-stepper-motor-kit-for-voron-v0.html</t>
+  </si>
+  <si>
+    <t>Nema 14 Stepper motor Kit for Voron V0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>voron v0 sourcing guide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://vorondesign.com/sourcing_guide?model=V0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://catalog.cshyde.com/item/pei-sheet-3d-printing-build-surface/10-mil-ultem-pei-w-3m-acrylic-adhesive/36-10a-3d-4-7x4-7</t>
+  </si>
+  <si>
+    <t>PEI + 3M 468P (200MP)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CS Hyde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーフェイスシート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インサートナット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ja.aliexpress.com/item/4000232858343.html?aff_fcid=b56372ab4622411b89544775a5057246-1637741653277-06881-_dWMOd8C&amp;aff_fsk=_dWMOd8C&amp;aff_platform=portals-tool&amp;sk=_dWMOd8C&amp;aff_trace_key=b56372ab4622411b89544775a5057246-1637741653277-06881-_dWMOd8C&amp;terminal_id=abcf960912074dc09d3769297fb2a691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	M3 Brass Heatstake Inserts - Short (M3x5x4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HFS3-1515-100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タップが開いていないため、工夫必要</t>
+  </si>
+  <si>
+    <t>タップが開いていないため、工夫必要</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>misumi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HFS3-1515-120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XY軸</t>
+    <rPh sb="2" eb="3">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端点スイッチ</t>
+    <rPh sb="0" eb="2">
+      <t>タンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/omron-electronics-inc-emc-div/D2F-5L/8593137</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D2F-5L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://fermio.xyz/search?search=build+plate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MGN7-H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ja.aliexpress.com/item/32880801484.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Motion kit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルト類</t>
+    <rPh sb="3" eb="4">
+      <t>ルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ja.aliexpress.com/item/4000939354851.html?spm=a2g0o.productlist.0.0.5c652150SJUmbo&amp;algo_pvid=2a0e9eed-bfeb-48e0-b1dd-afc5c3d0e17e&amp;algo_expid=2a0e9eed-bfeb-48e0-b1dd-afc5c3d0e17e-0&amp;btsid=0ab6f81e15872321657567466e1e3d&amp;ws_ab_test=searchweb0_0%2Csearchweb201602_%2Csearchweb201603_&amp;aff_fcid=e7ce1da82c4d4fe4b5b04d3167e332be-1637756380849-01181-_d8ZR3hm&amp;aff_fsk=_d8ZR3hm&amp;aff_platform=portals-tool&amp;sk=_d8ZR3hm&amp;aff_trace_key=e7ce1da82c4d4fe4b5b04d3167e332be-1637756380849-01181-_d8ZR3hm&amp;terminal_id=abcf960912074dc09d3769297fb2a691</t>
+  </si>
+  <si>
+    <t>ブラケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ja.aliexpress.com/item/4001050145015.html?spm=a2g0o.search0304.0.0.7cef4ed7BVZBix&amp;algo_pvid=194702fd-035b-4c34-bf99-2241f0dc8285&amp;algo_exp_id=194702fd-035b-4c34-bf99-2241f0dc8285-0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HBLTBS3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -288,12 +498,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -309,10 +525,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -594,341 +811,731 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.9140625" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="E1" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <f>SUM(F:F)</f>
+        <v>54730</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1">
-        <f>SUM(E:E)</f>
-        <v>38920</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5170</v>
+      </c>
+      <c r="F4">
+        <f>D4*E4</f>
+        <v>5170</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1884</v>
+      </c>
+      <c r="F5">
+        <f>D5*E5</f>
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3333</v>
+      </c>
+      <c r="F6">
+        <f>D6*E6</f>
+        <v>3333</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>240</v>
+      </c>
+      <c r="F7">
+        <f>D7*E7</f>
+        <v>2640</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E8">
+        <v>240</v>
+      </c>
+      <c r="F8">
+        <f>D8*E8</f>
+        <v>480</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>1071</v>
+      </c>
+      <c r="F9">
+        <f>D9*E9</f>
+        <v>5355</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5470</v>
+      </c>
+      <c r="F10">
+        <f>D10*E10</f>
+        <v>5470</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4231</v>
+      </c>
+      <c r="F11">
+        <f>D11*E11</f>
+        <v>4231</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F12">
+        <f>D12*E12</f>
+        <v>2100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1679</v>
+      </c>
+      <c r="F13">
+        <f>D13*E13</f>
+        <v>1679</v>
+      </c>
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2510</v>
-      </c>
-      <c r="E4">
-        <f>C4*D4</f>
-        <v>5020</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3333</v>
-      </c>
-      <c r="E5">
-        <f>C5*D5</f>
-        <v>3333</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>240</v>
-      </c>
-      <c r="E6">
-        <f>C6*D6</f>
-        <v>3120</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>1789</v>
-      </c>
-      <c r="E7">
-        <f>C7*D7</f>
-        <v>8945</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>5470</v>
-      </c>
-      <c r="E8">
-        <f>C8*D8</f>
-        <v>5470</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>4231</v>
-      </c>
-      <c r="E9">
-        <f>C9*D9</f>
-        <v>4231</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="I13" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2100</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ref="E10:E16" si="0">C10*D10</f>
-        <v>2100</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1679</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>1679</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <f>620+410</f>
         <v>1030</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
+      <c r="F14">
+        <f>D14*E14</f>
         <v>1030</v>
       </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2174</v>
+      </c>
+      <c r="F15">
+        <f>D15*E15</f>
+        <v>2174</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1818</v>
+      </c>
+      <c r="F16">
+        <f>D16*E16</f>
+        <v>1818</v>
+      </c>
+      <c r="G16" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2174</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>2174</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1818</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>1818</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="E15">
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2872</v>
+      </c>
+      <c r="F17">
+        <f>D17*E17</f>
+        <v>2872</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2872</v>
+      </c>
+      <c r="F18">
+        <f>D18*E18</f>
+        <v>2872</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1913</v>
+      </c>
+      <c r="F19">
+        <f>D19*E19</f>
+        <v>1913</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+      <c r="F20">
+        <f>D20*E20</f>
+        <v>65</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>767</v>
+      </c>
+      <c r="F21">
+        <f>D21*E21</f>
+        <v>767</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>809</v>
+      </c>
+      <c r="F22">
+        <f>D22*E22</f>
+        <v>809</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>240</v>
+      </c>
+      <c r="F23">
+        <f>D23*E23</f>
+        <v>720</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>337</v>
+      </c>
+      <c r="F24">
+        <f>D24*E24</f>
+        <v>1011</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>5175</v>
+      </c>
+      <c r="F25">
+        <f>D25*E25</f>
+        <v>5175</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>83</v>
+      </c>
+      <c r="F26">
+        <f>D26*E26</f>
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="F27">
+        <f t="shared" ref="F27:F33" si="0">D27*E27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="E16">
+    <row r="29" spans="1:9">
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:9">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:H6" xr:uid="{194F0E66-60CF-4092-AC0F-95E91A2C0CC0}"/>
+  <autoFilter ref="A3:I17" xr:uid="{612C3C66-200E-4AEB-83BF-7C24DF669B2D}"/>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" display="https://jp.rs-online.com/web/p/raspberry-pi/1828034/?cm_mmc=JP-PPC-DS3A-_-yahoo-_-3_JP_JP_Raspberry+Pi_Raspberry+Pi_Exact-_-Raspberry+Pi+-+Raspberry+Pi+-+1828034-_-raspberry+pi+3+model+b&amp;matchtype=e&amp;kwd-360864490957&amp;yclid=YSS.1000425012.EAIaIQobChMIzp2E3oqv9AIVEVVgCh3D_gc_EAAYASAAEgJLxfD_BwE&amp;gclid=CNex0PaKr_QCFQ4ZvAod1-QFBA&amp;gclsrc=ds" xr:uid="{2BBA86B3-B98A-4FFE-AF49-2563BF192D67}"/>
-    <hyperlink ref="G4" r:id="rId2" display="http://www.skysmotor.com/goods-20-Nema-14-%E3%83%90%E3%82%A4%E3%83%9D%E3%83%BC%E3%83%A9%E3%82%B9%E3%83%86%E3%83%83%E3%83%94%E3%83%B3%E3%82%B0%E3%83%A2%E3%83%BC%E3%82%BF%E3%83%BC-18%C2%B040Ncm-567ozin-15A-42V-35x35x52mm-4-%E3%83%AF%E3%82%A4%E3%83%A4%E3%83%BC.html" xr:uid="{AE0B1E95-9D2F-4710-B679-8BEDE05BEED2}"/>
-    <hyperlink ref="H10" r:id="rId3" display="https://www.chip1stop.com/view/dispDetail/DispDetail?partId=MWE1-0008468&amp;utm_medium=cpc&amp;utm_source=yahoojapan&amp;utm_campaign=JP_SKU_2021%E8%87%AA%E7%A4%BE%E5%9C%A8%E5%BA%AB_%E6%97%A5%E6%9C%AC&amp;utm_term=MWE1-0008468&amp;yclid=YSS.1000009641.EAIaIQobChMIlajpiZKv9AIVySFgCh2x0Q2FEAAYAiAAEgJS3vD_BwE" xr:uid="{DFB6814D-66F1-48CD-BCF7-DBAA3C5E6AD6}"/>
+    <hyperlink ref="I11" r:id="rId1" display="https://jp.rs-online.com/web/p/raspberry-pi/1828034/?cm_mmc=JP-PPC-DS3A-_-yahoo-_-3_JP_JP_Raspberry+Pi_Raspberry+Pi_Exact-_-Raspberry+Pi+-+Raspberry+Pi+-+1828034-_-raspberry+pi+3+model+b&amp;matchtype=e&amp;kwd-360864490957&amp;yclid=YSS.1000425012.EAIaIQobChMIzp2E3oqv9AIVEVVgCh3D_gc_EAAYASAAEgJLxfD_BwE&amp;gclid=CNex0PaKr_QCFQ4ZvAod1-QFBA&amp;gclsrc=ds" xr:uid="{2BBA86B3-B98A-4FFE-AF49-2563BF192D67}"/>
+    <hyperlink ref="H4" r:id="rId2" display="http://www.skysmotor.com/goods-20-Nema-14-%E3%83%90%E3%82%A4%E3%83%9D%E3%83%BC%E3%83%A9%E3%82%B9%E3%83%86%E3%83%83%E3%83%94%E3%83%B3%E3%82%B0%E3%83%A2%E3%83%BC%E3%82%BF%E3%83%BC-18%C2%B040Ncm-567ozin-15A-42V-35x35x52mm-4-%E3%83%AF%E3%82%A4%E3%83%A4%E3%83%BC.html" xr:uid="{AE0B1E95-9D2F-4710-B679-8BEDE05BEED2}"/>
+    <hyperlink ref="I12" r:id="rId3" display="https://www.chip1stop.com/view/dispDetail/DispDetail?partId=MWE1-0008468&amp;utm_medium=cpc&amp;utm_source=yahoojapan&amp;utm_campaign=JP_SKU_2021%E8%87%AA%E7%A4%BE%E5%9C%A8%E5%BA%AB_%E6%97%A5%E6%9C%AC&amp;utm_term=MWE1-0008468&amp;yclid=YSS.1000009641.EAIaIQobChMIlajpiZKv9AIVySFgCh2x0Q2FEAAYAiAAEgJS3vD_BwE" xr:uid="{DFB6814D-66F1-48CD-BCF7-DBAA3C5E6AD6}"/>
+    <hyperlink ref="I19" r:id="rId4" display="https://ja.aliexpress.com/item/4000017980629.html?aff_fcid=78ed92054cf94855b681a1f6f02cdc6e-1637736669365-08026-_dXbCEmC&amp;aff_fsk=_dXbCEmC&amp;aff_platform=link-c-tool&amp;sk=_dXbCEmC&amp;aff_trace_key=78ed92054cf94855b681a1f6f02cdc6e-1637736669365-08026-_dXbCEmC&amp;terminal_id=abcf960912074dc09d3769297fb2a691" xr:uid="{21AD63E7-82D2-48BB-B1BA-B09330DEED82}"/>
+    <hyperlink ref="C1" r:id="rId5" xr:uid="{71DBC2CC-A7FE-4618-A891-AF4C6D9FC926}"/>
+    <hyperlink ref="I17" r:id="rId6" xr:uid="{71D3C144-F4EE-47DA-914D-EA3DE99F959E}"/>
+    <hyperlink ref="I9" r:id="rId7" xr:uid="{BD7347A4-2F0A-4CA0-8417-7D076BE285C0}"/>
+    <hyperlink ref="I10" r:id="rId8" xr:uid="{A86B8069-F92B-47B4-B87D-EA9C2B1D9771}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Docs/parts_list.xlsx
+++ b/Docs/parts_list.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuto6\Documents\My3DPrinter\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537F89DD-D023-4E15-B983-71A6DD5C5E97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0E8BB3-8691-4F05-AE6C-869306D31E47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3410" yWindow="1370" windowWidth="14400" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="公式" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$I$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$J$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">公式!$A$3:$J$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
   <si>
     <t>品目</t>
     <rPh sb="0" eb="2">
@@ -53,13 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>個数</t>
-    <rPh sb="0" eb="2">
-      <t>コスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>価格</t>
     <rPh sb="0" eb="2">
       <t>カカク</t>
@@ -183,10 +178,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>chip1stop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://www.amazon.co.jp/-/en/Dewin-Buck-Converter-Voltage-converter/dp/B07L98VPQ9</t>
   </si>
   <si>
@@ -212,9 +203,6 @@
     <t>https://www.amazon.co.jp/3D%E3%83%97%E3%83%AA%E3%83%B3%E3%82%BF%E3%83%BC-%E3%82%AB%E3%83%BC%E3%83%88%E3%83%AA%E3%83%83%E3%82%B8%E3%83%92%E3%83%BC%E3%82%BF%E3%83%BC-24V-%E3%83%92%E3%83%BC%E3%82%BF%E3%83%BC-%E3%82%B1%E3%83%BC%E3%83%96%E3%83%AB%E9%95%B7%EF%BC%9A1m/dp/B073XH5NDH</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/i/32888737278.html</t>
-  </si>
-  <si>
     <t>ホットエンド</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -235,10 +223,6 @@
   </si>
   <si>
     <t>MOUSER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.chip1stop.com/view/dispDetail/DispDetail?partId=MWE1-0008468&amp;utm_medium=cpc&amp;utm_source=yahoojapan&amp;utm_campaign=JP_SKU_2021%E8%87%AA%E7%A4%BE%E5%9C%A8%E5%BA%AB_%E6%97%A5%E6%9C%AC&amp;utm_term=MWE1-0008468&amp;yclid=YSS.1000009641.EAIaIQobChMIlajpiZKv9AIVySFgCh2x0Q2FEAAYAiAAEgJS3vD_BwE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -296,10 +280,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FERMIO LABS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://keenovo.store/collections/standard-keenovo-silicone-heaters/products/keenovo-square-silicone-heater-3d-printer-build-plate-heatbed-heating-pad?variant=12950090055735</t>
   </si>
   <si>
@@ -455,18 +435,198 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ブラケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ja.aliexpress.com/item/4001050145015.html?spm=a2g0o.search0304.0.0.7cef4ed7BVZBix&amp;algo_pvid=194702fd-035b-4c34-bf99-2241f0dc8285&amp;algo_exp_id=194702fd-035b-4c34-bf99-2241f0dc8285-0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HBLTBS3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持数</t>
+    <rPh sb="0" eb="2">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせすれば、寸法指定可能</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スンポウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切削プレート加工入れてもらう</t>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>https://ja.aliexpress.com/item/4000939354851.html?spm=a2g0o.productlist.0.0.5c652150SJUmbo&amp;algo_pvid=2a0e9eed-bfeb-48e0-b1dd-afc5c3d0e17e&amp;algo_expid=2a0e9eed-bfeb-48e0-b1dd-afc5c3d0e17e-0&amp;btsid=0ab6f81e15872321657567466e1e3d&amp;ws_ab_test=searchweb0_0%2Csearchweb201602_%2Csearchweb201603_&amp;aff_fcid=e7ce1da82c4d4fe4b5b04d3167e332be-1637756380849-01181-_d8ZR3hm&amp;aff_fsk=_d8ZR3hm&amp;aff_platform=portals-tool&amp;sk=_d8ZR3hm&amp;aff_trace_key=e7ce1da82c4d4fe4b5b04d3167e332be-1637756380849-01181-_d8ZR3hm&amp;terminal_id=abcf960912074dc09d3769297fb2a691</t>
-  </si>
-  <si>
-    <t>ブラケット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://ja.aliexpress.com/item/4001050145015.html?spm=a2g0o.search0304.0.0.7cef4ed7BVZBix&amp;algo_pvid=194702fd-035b-4c34-bf99-2241f0dc8285&amp;algo_exp_id=194702fd-035b-4c34-bf99-2241f0dc8285-0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HBLTBS3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/MEAN-WELL/LRS-100-24?qs=sGAEpiMZZMua3V2yDfsb6adb4wTBlp22ETd9YhLxZKE%3D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/i/32888737278.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Makerbeam XL 15x15 200mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Makerbeam XL 15x15 100mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上のセットに付属</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ja.aliexpress.com/item/4001070840882.html?spm=a2g0o.cart.0.0.18783c00N12djU&amp;mp=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meanwell LRS-100-24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電源回路</t>
+    <rPh sb="0" eb="2">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	DC/DC PSU/buck converter - 24V to 5V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドライバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Crydom ED24D3 SSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bigtreetech SKR mini E3 (v2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/MEAN-WELL/LRS-100-24?qs=sGAEpiMZZMua3V2yDfsb6adb4wTBlp22ETd9YhLxZKE%3D</t>
+  </si>
+  <si>
+    <t>在庫少</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24V Heater Cartridge (slim wires)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B01HGIMI2G/ref=ox_sc_act_title_2?smid=A2UHE58S2974CT&amp;psc=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B01M03288J/ref=ox_sc_act_title_1?smid=A3GYM455B71YGR&amp;psc=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B01M1JDKZ0/ref=ox_sc_act_title_1?smid=A1THAZDOWP300U&amp;psc=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7mm x 7mm cable chain (less than 1/2 meter needed)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現時点で謎の部品</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンジテン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナゾ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Sensata/ED24D3?qs=sGAEpiMZZMtox2qOsdqmC8isG%2FaSMAiqcaWRAaUORAM%3D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫57</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -474,7 +634,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +653,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -525,11 +692,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -811,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -823,701 +991,717 @@
     <col min="2" max="2" width="18.75" customWidth="1"/>
     <col min="3" max="3" width="35.75" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <f>SUM(G:G)</f>
+        <v>46157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1">
-        <f>SUM(F:F)</f>
-        <v>54730</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>5170</v>
+      </c>
+      <c r="G4">
+        <f>(D4-E4)*F4</f>
+        <v>5170</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1884</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G33" si="0">(D5-E5)*F5</f>
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3333</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>3333</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>5170</v>
-      </c>
-      <c r="F4">
-        <f>D4*E4</f>
-        <v>5170</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1884</v>
-      </c>
-      <c r="F5">
-        <f>D5*E5</f>
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>3333</v>
-      </c>
-      <c r="F6">
-        <f>D6*E6</f>
-        <v>3333</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
       </c>
       <c r="D7">
         <v>11</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>240</v>
       </c>
-      <c r="F7">
-        <f>D7*E7</f>
+      <c r="G7">
+        <f t="shared" si="0"/>
         <v>2640</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
       <c r="H7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>240</v>
       </c>
-      <c r="F8">
-        <f>D8*E8</f>
+      <c r="G8">
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="G8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1071</v>
       </c>
-      <c r="F9">
-        <f>D9*E9</f>
+      <c r="G9">
+        <f t="shared" si="0"/>
         <v>5355</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>5470</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>4231</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>5470</v>
-      </c>
-      <c r="F10">
-        <f>D10*E10</f>
-        <v>5470</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>4231</v>
-      </c>
-      <c r="F11">
-        <f>D11*E11</f>
-        <v>4231</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2100</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1679</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1679</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
         <v>27</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2100</v>
-      </c>
-      <c r="F12">
-        <f>D12*E12</f>
-        <v>2100</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1679</v>
-      </c>
-      <c r="F13">
-        <f>D13*E13</f>
-        <v>1679</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f>620+410</f>
         <v>1030</v>
       </c>
-      <c r="F14">
-        <f>D14*E14</f>
+      <c r="G14">
+        <f t="shared" si="0"/>
         <v>1030</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2174</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>2174</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1818</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1818</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>4000</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="H17" t="s">
         <v>14</v>
       </c>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+      <c r="I17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2872</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>2872</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>2174</v>
-      </c>
-      <c r="F15">
-        <f>D15*E15</f>
-        <v>2174</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1818</v>
-      </c>
-      <c r="F16">
-        <f>D16*E16</f>
-        <v>1818</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1913</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1913</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>65</v>
       </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>2872</v>
-      </c>
-      <c r="F17">
-        <f>D17*E17</f>
-        <v>2872</v>
-      </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
+      <c r="G20">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>2872</v>
-      </c>
-      <c r="F18">
-        <f>D18*E18</f>
-        <v>2872</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>767</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>767</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1913</v>
-      </c>
-      <c r="F19">
-        <f>D19*E19</f>
-        <v>1913</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>65</v>
-      </c>
-      <c r="F20">
-        <f>D20*E20</f>
-        <v>65</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>767</v>
-      </c>
-      <c r="F21">
-        <f>D21*E21</f>
-        <v>767</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>809</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>809</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
         <v>72</v>
-      </c>
-      <c r="I21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>809</v>
-      </c>
-      <c r="F22">
-        <f>D22*E22</f>
-        <v>809</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>240</v>
       </c>
-      <c r="F23">
-        <f>D23*E23</f>
+      <c r="G23">
+        <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="G23" t="s">
-        <v>80</v>
-      </c>
       <c r="H23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>337</v>
       </c>
-      <c r="F24">
-        <f>D24*E24</f>
+      <c r="G24">
+        <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
         <v>85</v>
       </c>
-      <c r="I24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>5175</v>
       </c>
-      <c r="F25">
-        <f>D25*E25</f>
+      <c r="G25">
+        <f t="shared" si="0"/>
         <v>5175</v>
       </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>14</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>83</v>
       </c>
-      <c r="F26">
-        <f>D26*E26</f>
+      <c r="G26">
+        <f t="shared" si="0"/>
         <v>1162</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="F27">
-        <f t="shared" ref="F27:F33" si="0">D27*E27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33">
+    <row r="27" spans="1:10">
+      <c r="G27">
+        <f>(D27-E27)*F27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1526,16 +1710,389 @@
   <autoFilter ref="A3:I17" xr:uid="{612C3C66-200E-4AEB-83BF-7C24DF669B2D}"/>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I11" r:id="rId1" display="https://jp.rs-online.com/web/p/raspberry-pi/1828034/?cm_mmc=JP-PPC-DS3A-_-yahoo-_-3_JP_JP_Raspberry+Pi_Raspberry+Pi_Exact-_-Raspberry+Pi+-+Raspberry+Pi+-+1828034-_-raspberry+pi+3+model+b&amp;matchtype=e&amp;kwd-360864490957&amp;yclid=YSS.1000425012.EAIaIQobChMIzp2E3oqv9AIVEVVgCh3D_gc_EAAYASAAEgJLxfD_BwE&amp;gclid=CNex0PaKr_QCFQ4ZvAod1-QFBA&amp;gclsrc=ds" xr:uid="{2BBA86B3-B98A-4FFE-AF49-2563BF192D67}"/>
-    <hyperlink ref="H4" r:id="rId2" display="http://www.skysmotor.com/goods-20-Nema-14-%E3%83%90%E3%82%A4%E3%83%9D%E3%83%BC%E3%83%A9%E3%82%B9%E3%83%86%E3%83%83%E3%83%94%E3%83%B3%E3%82%B0%E3%83%A2%E3%83%BC%E3%82%BF%E3%83%BC-18%C2%B040Ncm-567ozin-15A-42V-35x35x52mm-4-%E3%83%AF%E3%82%A4%E3%83%A4%E3%83%BC.html" xr:uid="{AE0B1E95-9D2F-4710-B679-8BEDE05BEED2}"/>
-    <hyperlink ref="I12" r:id="rId3" display="https://www.chip1stop.com/view/dispDetail/DispDetail?partId=MWE1-0008468&amp;utm_medium=cpc&amp;utm_source=yahoojapan&amp;utm_campaign=JP_SKU_2021%E8%87%AA%E7%A4%BE%E5%9C%A8%E5%BA%AB_%E6%97%A5%E6%9C%AC&amp;utm_term=MWE1-0008468&amp;yclid=YSS.1000009641.EAIaIQobChMIlajpiZKv9AIVySFgCh2x0Q2FEAAYAiAAEgJS3vD_BwE" xr:uid="{DFB6814D-66F1-48CD-BCF7-DBAA3C5E6AD6}"/>
-    <hyperlink ref="I19" r:id="rId4" display="https://ja.aliexpress.com/item/4000017980629.html?aff_fcid=78ed92054cf94855b681a1f6f02cdc6e-1637736669365-08026-_dXbCEmC&amp;aff_fsk=_dXbCEmC&amp;aff_platform=link-c-tool&amp;sk=_dXbCEmC&amp;aff_trace_key=78ed92054cf94855b681a1f6f02cdc6e-1637736669365-08026-_dXbCEmC&amp;terminal_id=abcf960912074dc09d3769297fb2a691" xr:uid="{21AD63E7-82D2-48BB-B1BA-B09330DEED82}"/>
+    <hyperlink ref="J11" r:id="rId1" display="https://jp.rs-online.com/web/p/raspberry-pi/1828034/?cm_mmc=JP-PPC-DS3A-_-yahoo-_-3_JP_JP_Raspberry+Pi_Raspberry+Pi_Exact-_-Raspberry+Pi+-+Raspberry+Pi+-+1828034-_-raspberry+pi+3+model+b&amp;matchtype=e&amp;kwd-360864490957&amp;yclid=YSS.1000425012.EAIaIQobChMIzp2E3oqv9AIVEVVgCh3D_gc_EAAYASAAEgJLxfD_BwE&amp;gclid=CNex0PaKr_QCFQ4ZvAod1-QFBA&amp;gclsrc=ds" xr:uid="{2BBA86B3-B98A-4FFE-AF49-2563BF192D67}"/>
+    <hyperlink ref="I4" r:id="rId2" display="http://www.skysmotor.com/goods-20-Nema-14-%E3%83%90%E3%82%A4%E3%83%9D%E3%83%BC%E3%83%A9%E3%82%B9%E3%83%86%E3%83%83%E3%83%94%E3%83%B3%E3%82%B0%E3%83%A2%E3%83%BC%E3%82%BF%E3%83%BC-18%C2%B040Ncm-567ozin-15A-42V-35x35x52mm-4-%E3%83%AF%E3%82%A4%E3%83%A4%E3%83%BC.html" xr:uid="{AE0B1E95-9D2F-4710-B679-8BEDE05BEED2}"/>
+    <hyperlink ref="J12" r:id="rId3" xr:uid="{DFB6814D-66F1-48CD-BCF7-DBAA3C5E6AD6}"/>
+    <hyperlink ref="J19" r:id="rId4" display="https://ja.aliexpress.com/item/4000017980629.html?aff_fcid=78ed92054cf94855b681a1f6f02cdc6e-1637736669365-08026-_dXbCEmC&amp;aff_fsk=_dXbCEmC&amp;aff_platform=link-c-tool&amp;sk=_dXbCEmC&amp;aff_trace_key=78ed92054cf94855b681a1f6f02cdc6e-1637736669365-08026-_dXbCEmC&amp;terminal_id=abcf960912074dc09d3769297fb2a691" xr:uid="{21AD63E7-82D2-48BB-B1BA-B09330DEED82}"/>
     <hyperlink ref="C1" r:id="rId5" xr:uid="{71DBC2CC-A7FE-4618-A891-AF4C6D9FC926}"/>
-    <hyperlink ref="I17" r:id="rId6" xr:uid="{71D3C144-F4EE-47DA-914D-EA3DE99F959E}"/>
-    <hyperlink ref="I9" r:id="rId7" xr:uid="{BD7347A4-2F0A-4CA0-8417-7D076BE285C0}"/>
-    <hyperlink ref="I10" r:id="rId8" xr:uid="{A86B8069-F92B-47B4-B87D-EA9C2B1D9771}"/>
+    <hyperlink ref="J17" r:id="rId6" xr:uid="{71D3C144-F4EE-47DA-914D-EA3DE99F959E}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{BD7347A4-2F0A-4CA0-8417-7D076BE285C0}"/>
+    <hyperlink ref="J10" r:id="rId8" xr:uid="{A86B8069-F92B-47B4-B87D-EA9C2B1D9771}"/>
+    <hyperlink ref="J15" r:id="rId9" xr:uid="{4DB79E79-987C-43D5-8AB3-5708363BA0F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDEA8CA-9725-43C4-857A-AD94150BE386}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="21.08203125" customWidth="1"/>
+    <col min="3" max="3" width="38.08203125" customWidth="1"/>
+    <col min="9" max="9" width="17.9140625" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <f>SUM(G:G)</f>
+        <v>9341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>5878</v>
+      </c>
+      <c r="G4">
+        <f>(D4-E4)*F4</f>
+        <v>5878</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G25" si="0">(D5-E5)*F5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2104</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1359</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1359</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1747</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1132</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1132</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:J3" xr:uid="{3F4614F8-E70C-4CF8-8089-DFE42774084B}"/>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{A03EFD47-6F0F-4B43-A60D-08B9F7850AAB}"/>
+    <hyperlink ref="J15" r:id="rId2" xr:uid="{AA4C5454-3B83-4EE7-8566-7E3BEA409DC5}"/>
+    <hyperlink ref="J7" r:id="rId3" xr:uid="{6E53CB22-7D54-4068-A495-1F8C5F1340E6}"/>
+    <hyperlink ref="J17" r:id="rId4" xr:uid="{11930F25-3CF9-4A8D-913E-24D022972A55}"/>
+    <hyperlink ref="J9" r:id="rId5" xr:uid="{6E7C65C2-A45F-4344-8B37-60ED217B5077}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>